--- a/01_Input/Manual_Counts/018_Merged.xlsx
+++ b/01_Input/Manual_Counts/018_Merged.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\OneDrive - mail.uni-mannheim.de\Uni\Master\Semester 3\Teamproject\Towards-Sustainable-Cities-through-Simulation\01_Input\Manual_Counts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1167B53F-8DE4-4186-A22B-AE3A69CBEA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA35FED-8270-4BE0-BB43-C2504EDDF884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -77,21 +77,15 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,46 +97,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,19 +139,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76285C95-B949-4E8B-BC98-355228B22A00}" name="Tabelle243" displayName="Tabelle243" ref="A1:J24" totalsRowShown="0">
-  <autoFilter ref="A1:J24" xr:uid="{76285C95-B949-4E8B-BC98-355228B22A00}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12843BB4-B4EE-42FA-A67D-81F2B04E83EF}" name="Tabelle243" displayName="Tabelle243" ref="A1:J27" totalsRowShown="0">
+  <autoFilter ref="A1:J27" xr:uid="{12843BB4-B4EE-42FA-A67D-81F2B04E83EF}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{F3F49614-F442-4B75-BE14-28887FF71E14}" name="Timestamp" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{90E1CE27-9805-41BE-B704-73B401243AC3}" name="Motorcycle (R) "/>
-    <tableColumn id="3" xr3:uid="{03C9D460-4DEE-40A0-8F33-4E5F82B90AEC}" name="Motorcycle (S)"/>
-    <tableColumn id="4" xr3:uid="{02C5DDA6-1EC8-45A4-A487-FA9D2F096035}" name="LKW (R) "/>
-    <tableColumn id="5" xr3:uid="{FC916476-ECEA-46C9-B528-55A2B63AF23D}" name="LKW (S)"/>
-    <tableColumn id="6" xr3:uid="{416DC1E0-5132-4C1B-AAF9-E49E5D3ECFDC}" name="Transporter (R) "/>
-    <tableColumn id="7" xr3:uid="{F134F02A-9DE9-45C5-A7A7-EE3A4DE08BBB}" name="Transporter (S)"/>
-    <tableColumn id="10" xr3:uid="{BD328078-4562-4782-8F89-E186D4F0EAB8}" name="PKW (R) "/>
-    <tableColumn id="11" xr3:uid="{2B25AB78-2023-441A-9205-F7FF4EC947AA}" name="PKW (S)"/>
-    <tableColumn id="12" xr3:uid="{28089611-9963-48CC-A76B-B2DE72698555}" name="Bicycle"/>
+    <tableColumn id="1" xr3:uid="{A929166E-C00B-4FE7-ACE0-83985DB0143E}" name="Timestamp" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3CFA859E-87D1-4041-A5D8-2857D3356B1B}" name="Motorcycle (R) "/>
+    <tableColumn id="3" xr3:uid="{9D9ACA29-4E20-462A-B916-FC9F940B9C05}" name="Motorcycle (S)"/>
+    <tableColumn id="4" xr3:uid="{7A080FB8-AEEB-4F6D-9A7D-AEC13B4A1EA0}" name="LKW (R) "/>
+    <tableColumn id="5" xr3:uid="{BA1A1C77-81AB-4F69-903F-6A08DCE3F7C8}" name="LKW (S)"/>
+    <tableColumn id="6" xr3:uid="{9D42EC7F-DA0D-4753-9678-8ED61871BC31}" name="Transporter (R) "/>
+    <tableColumn id="7" xr3:uid="{CABA9ADB-FE91-46C3-9701-458C723F2E11}" name="Transporter (S)"/>
+    <tableColumn id="10" xr3:uid="{484B8286-B64D-432E-A619-75D65CB54E27}" name="PKW (R) "/>
+    <tableColumn id="11" xr3:uid="{7500C616-036A-42C7-B2DA-A57392273327}" name="PKW (S)"/>
+    <tableColumn id="12" xr3:uid="{9F87A931-6F52-477E-9229-4ADE05C78BBD}" name="Bicycle"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -452,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,31 +731,31 @@
       <c r="A10" s="3">
         <v>45392.333333333336</v>
       </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>11</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>47</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10">
         <v>150</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" s="2"/>
@@ -796,25 +764,25 @@
       <c r="A11" s="1">
         <v>45392.340277777781</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>7</v>
       </c>
       <c r="G11">
         <v>14</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>42</v>
       </c>
       <c r="I11">
@@ -828,31 +796,31 @@
       <c r="A12" s="1">
         <v>45392.347222222219</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>4</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12">
         <v>6</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12">
         <v>56</v>
       </c>
       <c r="I12">
         <v>134</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12">
         <v>0</v>
       </c>
     </row>
@@ -860,25 +828,25 @@
       <c r="A13" s="1">
         <v>45392.354166666664</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>10</v>
       </c>
       <c r="G13">
         <v>19</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>74</v>
       </c>
       <c r="I13">
@@ -892,31 +860,31 @@
       <c r="A14" s="1">
         <v>45392.361111111109</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14">
         <v>6</v>
       </c>
       <c r="G14">
         <v>18</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14">
         <v>86</v>
       </c>
       <c r="I14">
         <v>201</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14">
         <v>0</v>
       </c>
     </row>
@@ -924,25 +892,25 @@
       <c r="A15" s="1">
         <v>45392.368055555555</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>6</v>
       </c>
       <c r="G15">
         <v>18</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>57</v>
       </c>
       <c r="I15">
@@ -956,31 +924,31 @@
       <c r="A16" s="3">
         <v>45392.666666666664</v>
       </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>11</v>
       </c>
-      <c r="D16" s="4">
-        <v>2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>8</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16">
         <v>9</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16">
         <v>73</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16">
         <v>141</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16">
         <v>0</v>
       </c>
     </row>
@@ -988,25 +956,25 @@
       <c r="A17" s="1">
         <v>45392.673611111109</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>5</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>58</v>
       </c>
       <c r="I17">
@@ -1020,104 +988,104 @@
       <c r="A18" s="1">
         <v>45392.680555497682</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18">
         <v>3</v>
       </c>
       <c r="G18">
         <v>14</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18">
         <v>56</v>
       </c>
       <c r="I18">
         <v>179</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>45392.833333333336</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>2</v>
-      </c>
-      <c r="H19" s="5">
-        <v>34</v>
-      </c>
-      <c r="I19" s="5">
-        <v>79</v>
-      </c>
-      <c r="J19" s="5">
-        <v>11</v>
+      <c r="A19" s="1">
+        <v>45392.687499942127</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>52</v>
+      </c>
+      <c r="I19">
+        <v>131</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45392.840277777781</v>
+        <v>45392.694444386572</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I20">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45392.847222222219</v>
+        <v>45392.701388831018</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1129,62 +1097,62 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I21">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>45392.854166666664</v>
+      <c r="A22" s="3">
+        <v>45392.833333333336</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I22">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J22">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45392.861111111109</v>
+        <v>45392.840277777781</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1193,30 +1161,30 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I23">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45392.868055555555</v>
+        <v>45392.847222222219</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1228,15 +1196,111 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I24">
         <v>81</v>
       </c>
       <c r="J24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45392.854166666664</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <v>83</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45392.861111111109</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>26</v>
+      </c>
+      <c r="I26">
+        <v>85</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45392.868055555555</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>35</v>
+      </c>
+      <c r="I27">
+        <v>81</v>
+      </c>
+      <c r="J27">
         <v>3</v>
       </c>
     </row>

--- a/01_Input/Manual_Counts/018_Merged.xlsx
+++ b/01_Input/Manual_Counts/018_Merged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paul\OneDrive - mail.uni-mannheim.de\Uni\Master\Semester 3\Teamproject\Towards-Sustainable-Cities-through-Simulation\01_Input\Manual_Counts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Semester 3/Teamproject/Towards-Sustainable-Cities-through-Simulation/01_Input/Manual_Counts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA35FED-8270-4BE0-BB43-C2504EDDF884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{5BA35FED-8270-4BE0-BB43-C2504EDDF884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0335C8BE-CACD-4160-BCFA-B31AA81ECE43}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,16 +76,28 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -102,15 +114,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,19 +187,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12843BB4-B4EE-42FA-A67D-81F2B04E83EF}" name="Tabelle243" displayName="Tabelle243" ref="A1:J27" totalsRowShown="0">
-  <autoFilter ref="A1:J27" xr:uid="{12843BB4-B4EE-42FA-A67D-81F2B04E83EF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A526840B-4EB5-4C1B-9957-D2E0B76A7E0A}" name="Tabelle243" displayName="Tabelle243" ref="A1:J27" totalsRowShown="0">
+  <autoFilter ref="A1:J27" xr:uid="{A526840B-4EB5-4C1B-9957-D2E0B76A7E0A}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A929166E-C00B-4FE7-ACE0-83985DB0143E}" name="Timestamp" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{3CFA859E-87D1-4041-A5D8-2857D3356B1B}" name="Motorcycle (R) "/>
-    <tableColumn id="3" xr3:uid="{9D9ACA29-4E20-462A-B916-FC9F940B9C05}" name="Motorcycle (S)"/>
-    <tableColumn id="4" xr3:uid="{7A080FB8-AEEB-4F6D-9A7D-AEC13B4A1EA0}" name="LKW (R) "/>
-    <tableColumn id="5" xr3:uid="{BA1A1C77-81AB-4F69-903F-6A08DCE3F7C8}" name="LKW (S)"/>
-    <tableColumn id="6" xr3:uid="{9D42EC7F-DA0D-4753-9678-8ED61871BC31}" name="Transporter (R) "/>
-    <tableColumn id="7" xr3:uid="{CABA9ADB-FE91-46C3-9701-458C723F2E11}" name="Transporter (S)"/>
-    <tableColumn id="10" xr3:uid="{484B8286-B64D-432E-A619-75D65CB54E27}" name="PKW (R) "/>
-    <tableColumn id="11" xr3:uid="{7500C616-036A-42C7-B2DA-A57392273327}" name="PKW (S)"/>
-    <tableColumn id="12" xr3:uid="{9F87A931-6F52-477E-9229-4ADE05C78BBD}" name="Bicycle"/>
+    <tableColumn id="1" xr3:uid="{24388FE9-5E37-454D-810D-8E64ECB9CF76}" name="Timestamp" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{87E19EEF-2E5C-4A30-B869-70A26977EF60}" name="Motorcycle (R) "/>
+    <tableColumn id="3" xr3:uid="{6CBA2B94-976F-4CF1-93D5-F3E30CDB336D}" name="Motorcycle (S)"/>
+    <tableColumn id="4" xr3:uid="{1174F3EA-8E9C-4CE4-99E6-220A7D01B646}" name="LKW (R) "/>
+    <tableColumn id="5" xr3:uid="{CFEFDA4A-8CEE-4E62-B8DA-F524B9AB443F}" name="LKW (S)"/>
+    <tableColumn id="6" xr3:uid="{EF91AE62-CD41-42CD-8931-52F948E98A00}" name="Transporter (R) "/>
+    <tableColumn id="7" xr3:uid="{36C56484-9376-423D-9EFF-F0F154CF790A}" name="Transporter (S)"/>
+    <tableColumn id="10" xr3:uid="{EEDA4E09-F62C-41E8-BCF2-47F97E08E654}" name="PKW (R) "/>
+    <tableColumn id="11" xr3:uid="{A53380A6-CE36-423F-950A-EC8FB3268109}" name="PKW (S)"/>
+    <tableColumn id="12" xr3:uid="{1EC36CA7-C121-4033-B2FA-AF6374B9E95F}" name="Bicycle"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,7 +513,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45250.3125</v>
+        <v>45250.319444444445</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -498,7 +546,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45250.319444444445</v>
+        <v>45250.326388888891</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -531,7 +579,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45250.326388888891</v>
+        <v>45250.333333333336</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -564,7 +612,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45250.333333333336</v>
+        <v>45250.340277777781</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -597,7 +645,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45250.340277777781</v>
+        <v>45250.347222222219</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -630,7 +678,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45250.347222222219</v>
+        <v>45250.354166666664</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -663,7 +711,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45250.354166666664</v>
+        <v>45250.361111111109</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -695,8 +743,8 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45250.361111111109</v>
+      <c r="A9" s="3">
+        <v>45250.368055555555</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -728,61 +776,61 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>45392.333333333336</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
+      <c r="A10" s="1">
+        <v>45392.340277777781</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
         <v>5</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>11</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>47</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>150</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>0</v>
       </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45392.340277777781</v>
-      </c>
-      <c r="B11">
+        <v>45392.347222222219</v>
+      </c>
+      <c r="B11" s="6">
         <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>7</v>
       </c>
       <c r="G11">
         <v>14</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>42</v>
       </c>
       <c r="I11">
@@ -794,27 +842,27 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45392.347222222219</v>
-      </c>
-      <c r="B12">
+        <v>45392.354166666664</v>
+      </c>
+      <c r="B12" s="7">
         <v>4</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>0</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>6</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>56</v>
       </c>
       <c r="I12">
@@ -826,27 +874,27 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45392.354166666664</v>
-      </c>
-      <c r="B13">
+        <v>45392.361111111109</v>
+      </c>
+      <c r="B13" s="6">
         <v>3</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>0</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>10</v>
       </c>
       <c r="G13">
         <v>19</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>74</v>
       </c>
       <c r="I13">
@@ -858,27 +906,27 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45392.361111111109</v>
-      </c>
-      <c r="B14">
+        <v>45392.368055555555</v>
+      </c>
+      <c r="B14" s="7">
         <v>0</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>2</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>6</v>
       </c>
       <c r="G14">
         <v>18</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>86</v>
       </c>
       <c r="I14">
@@ -889,28 +937,28 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45392.368055555555</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="3">
+        <v>45392.37499971065</v>
+      </c>
+      <c r="B15" s="6">
         <v>1</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <v>6</v>
       </c>
       <c r="G15">
         <v>18</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>57</v>
       </c>
       <c r="I15">
@@ -921,60 +969,60 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>45392.666666666664</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="A16" s="1">
+        <v>45392.673611111109</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
         <v>11</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
         <v>8</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>9</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="4">
         <v>73</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>141</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45392.673611111109</v>
-      </c>
-      <c r="B17">
+        <v>45392.680555497682</v>
+      </c>
+      <c r="B17" s="6">
         <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>0</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <v>5</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>58</v>
       </c>
       <c r="I17">
@@ -986,27 +1034,27 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45392.680555497682</v>
-      </c>
-      <c r="B18">
+        <v>45392.687499942127</v>
+      </c>
+      <c r="B18" s="7">
         <v>2</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>3</v>
       </c>
       <c r="G18">
         <v>14</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>56</v>
       </c>
       <c r="I18">
@@ -1016,11 +1064,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45392.687499942127</v>
-      </c>
-      <c r="B19">
+        <v>45392.694444386572</v>
+      </c>
+      <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19">
@@ -1032,27 +1080,27 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="8">
         <v>6</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>52</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="8">
         <v>131</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45392.694444386572</v>
-      </c>
-      <c r="B20">
+        <v>45392.701388831018</v>
+      </c>
+      <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20">
@@ -1064,27 +1112,27 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="8">
         <v>6</v>
       </c>
       <c r="G20">
         <v>7</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>54</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="8">
         <v>165</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>45392.701388831018</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>45392.708332986113</v>
+      </c>
+      <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21">
@@ -1096,16 +1144,16 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="8">
         <v>4</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>60</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="8">
         <v>181</v>
       </c>
       <c r="J21">
@@ -1113,40 +1161,40 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>45392.833333333336</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
+      <c r="A22" s="1">
+        <v>45392.840277777781</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5">
         <v>34</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="5">
         <v>79</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45392.840277777781</v>
+        <v>45392.847222222219</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1178,7 +1226,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45392.847222222219</v>
+        <v>45392.854166666664</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1210,7 +1258,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45392.854166666664</v>
+        <v>45392.861111111109</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1242,7 +1290,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45392.861111111109</v>
+        <v>45392.868055555555</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1274,7 +1322,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45392.868055555555</v>
+        <v>45392.87499971065</v>
       </c>
       <c r="B27">
         <v>1</v>
